--- a/turbine_data/WT_general_properties.xlsx
+++ b/turbine_data/WT_general_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Documents/Courses_materials/Master_thesis/codes/python/harpy/turbine_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Documents/GitHub/HarPy_v0/turbine_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C224E2F-EE87-7545-8F8D-4FB808A3407F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0806E992-C90B-6643-8C75-44E93FD17C3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16360" yWindow="460" windowWidth="16360" windowHeight="17760" activeTab="4" xr2:uid="{82E38C40-9FEE-B945-A838-D37A279F9E96}"/>
+    <workbookView xWindow="-19100" yWindow="460" windowWidth="19100" windowHeight="17760" activeTab="2" xr2:uid="{82E38C40-9FEE-B945-A838-D37A279F9E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -158,24 +158,6 @@
     <t>sec</t>
   </si>
   <si>
-    <t>./turbine_data/FFA-W3-241_ds.txt</t>
-  </si>
-  <si>
-    <t>./turbine_data/FFA-W3-301_ds.txt</t>
-  </si>
-  <si>
-    <t>./turbine_data/FFA-W3-360_ds.txt</t>
-  </si>
-  <si>
-    <t>./turbine_data/FFA-W3-480_ds.txt</t>
-  </si>
-  <si>
-    <t>./turbine_data/FFA-W3-600_ds.txt</t>
-  </si>
-  <si>
-    <t>./turbine_data/cylinder_ds.txt</t>
-  </si>
-  <si>
     <t>Number of spatial dimensions</t>
   </si>
   <si>
@@ -342,6 +324,24 @@
   </si>
   <si>
     <t>./wind/windsimu</t>
+  </si>
+  <si>
+    <t>./turbine_data/FFA-W3-241_3ds.txt</t>
+  </si>
+  <si>
+    <t>./turbine_data/FFA-W3-301_3ds.txt</t>
+  </si>
+  <si>
+    <t>./turbine_data/FFA-W3-360_3ds.txt</t>
+  </si>
+  <si>
+    <t>./turbine_data/FFA-W3-480_3ds.txt</t>
+  </si>
+  <si>
+    <t>./turbine_data/FFA-W3-600_3ds.txt</t>
+  </si>
+  <si>
+    <t>./turbine_data/cylinder_3ds.txt</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B22" s="7">
         <v>7.5</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B23" s="7">
         <v>0</v>
@@ -1031,73 +1031,73 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B24" s="18">
         <v>446036</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B25" s="18">
         <v>105520</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B26" s="18">
         <v>4106000</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B27" s="18">
         <v>410600</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B28" s="18">
         <v>4106000</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B29" s="18">
         <v>325670.9596</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B30" s="14">
         <v>0.46793270393690001</v>
@@ -1108,35 +1108,35 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B31" s="18">
         <v>1705652.8239434101</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B32" s="18">
         <v>1E+17</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B33" s="18">
         <v>4222467465.8688202</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -1166,42 +1166,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B03C78C-037B-5148-BD91-C36AD499C8E2}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1226,7 +1226,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="B1" s="12">
         <v>24.1</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="B2" s="12">
         <v>30.1</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="B3" s="12">
         <v>36</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B4" s="12">
         <v>48</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B5" s="12">
         <v>60</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="B6" s="12">
         <v>100</v>
@@ -1344,7 +1344,7 @@
         <v>1500.5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1355,7 +1355,7 @@
         <v>52253.5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1371,7 +1371,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B8" s="4">
         <v>7.1</v>
@@ -1382,24 +1382,24 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B9" s="17">
         <v>80800000000</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B10" s="17">
         <v>0.2036</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1411,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6980E429-7650-FA46-8416-B19173FCE56D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="141" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1425,7 +1425,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B1" s="10">
         <v>3</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" s="9">
         <v>3</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3" s="9">
         <v>64</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" s="9">
         <v>64</v>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>14</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B6" s="20">
         <v>33.6</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B7" s="20">
         <v>0.124681</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B8" s="20">
         <v>3.9</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B9" s="9">
         <v>-5</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>14</v>
@@ -1566,15 +1566,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B2" s="19">
         <v>29.4</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B3" s="19">
         <v>0.24779899999999999</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B4" s="19">
         <v>3.9</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>64</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>-5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1660,40 +1660,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B1" s="16">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B2" s="16">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B3" s="16">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B4" s="16">
         <v>0.64</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B5" s="16">
         <v>1.5</v>
@@ -1709,13 +1709,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B6" s="16">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
